--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2005.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2005.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.157476607817139</v>
+        <v>1.000378370285034</v>
       </c>
       <c r="B1">
-        <v>2.272333189473581</v>
+        <v>3.112407445907593</v>
       </c>
       <c r="C1">
-        <v>7.971935687650761</v>
+        <v>6.713497161865234</v>
       </c>
       <c r="D1">
-        <v>2.484099142728405</v>
+        <v>1.907366991043091</v>
       </c>
       <c r="E1">
-        <v>1.227454499936899</v>
+        <v>1.338062644004822</v>
       </c>
     </row>
   </sheetData>
